--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3617</v>
+        <v>3638</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1505,6 +1505,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1517,7 +1561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1774,6 +1818,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1786,7 +1874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,6 +1967,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1891,7 +2023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,7 +2306,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2215,7 +2347,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2297,7 +2429,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2379,7 +2511,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2543,7 +2675,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2748,7 +2880,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3617</v>
+        <v>3638</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2830,7 +2962,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2953,7 +3085,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2994,7 +3126,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -3214,6 +3346,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -506,12 +506,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1219</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+        <v>1294</v>
+      </c>
+      <c r="G2" t="n">
+        <v>98</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -547,12 +545,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1974</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>2115</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -588,7 +584,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -629,12 +625,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>159</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="G5" t="n">
+        <v>218</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -670,12 +664,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>401</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>435</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -707,16 +699,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 22:00</t>
+          <t>2024.01.13 17:00-01.13 22:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>128</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -752,12 +742,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>487</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>538</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -793,12 +781,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>116</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>149</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -834,12 +820,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>73</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -866,7 +850,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>巧客街88号 钱塘小雅田园中心</t>
+          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -875,12 +859,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>139</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+        <v>181</v>
+      </c>
+      <c r="G11" t="n">
+        <v>69</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -916,12 +898,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>774</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -957,12 +937,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="G13" t="n">
+        <v>78</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -998,7 +976,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1039,12 +1017,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3638</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>4482</v>
+      </c>
+      <c r="G15" t="n">
+        <v>70</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1080,7 +1056,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2742</v>
+        <v>2729</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1121,7 +1097,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>824</v>
+        <v>858</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1162,12 +1138,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>597</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>638</v>
+      </c>
+      <c r="G18" t="n">
+        <v>68</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1203,7 +1177,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1244,12 +1218,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>703</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>734</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1285,12 +1257,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>1493</v>
+      </c>
+      <c r="G21" t="n">
+        <v>65</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1326,12 +1296,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="G22" t="n">
+        <v>65</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1367,12 +1335,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>672</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>685</v>
+      </c>
+      <c r="G23" t="n">
+        <v>50</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1408,12 +1374,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>271</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+        <v>298</v>
+      </c>
+      <c r="G24" t="n">
+        <v>89</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1449,12 +1413,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>74</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>93</v>
+      </c>
+      <c r="G25" t="n">
+        <v>65</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1490,7 +1452,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1561,7 +1523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,30 +1582,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024.01.12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·二十四伎乐戏剧国风音乐会《唐·宫乐宴》</t>
+          <t>杭州·SACG二次元live夜场（取消）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>建国南路280号 杭州红星剧院</t>
+          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.07 19:30-01.07 21:00</t>
+          <t>2024.01.12 19:00-01.12 22:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -1651,7 +1613,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78555&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1661,38 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2024.01.13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·SACG二次元live夜场（取消）</t>
+          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.12 19:00-01.12 22:00</t>
+          <t>2024.01.13 14:00-01.13 15:30</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>90</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1702,38 +1662,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.13 14:00-01.13 15:30</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>89</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1743,38 +1701,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024.01.31</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1782,42 +1740,14 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024.01.31</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>武林广场29号 杭州剧院</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1836,7 +1766,12 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -1844,24 +1779,6 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1952,12 +1869,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>104</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+        <v>126</v>
+      </c>
+      <c r="G2" t="n">
+        <v>108</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2023,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2101,12 +2016,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>104</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
+        <v>126</v>
+      </c>
+      <c r="G2" t="n">
+        <v>108</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2123,30 +2036,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024.01.12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·二十四伎乐戏剧国风音乐会《唐·宫乐宴》</t>
+          <t>杭州·SACG二次元live夜场（取消）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>建国南路280号 杭州红星剧院</t>
+          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.07 19:30-01.07 21:00</t>
+          <t>2024.01.12 19:00-01.12 22:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -2154,7 +2067,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78555&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2164,38 +2077,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2024.01.13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·SACG二次元live夜场（取消）</t>
+          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.12 19:00-01.12 22:00</t>
+          <t>2024.01.13 14:00-01.13 15:30</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2210,33 +2121,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
+          <t>杭州·代号鸢Only——绣衣楼过大年</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+          <t>黄姑山路51-4号 0101park</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.13 14:00-01.13 15:30</t>
+          <t>2024.01.13 11:00-01.13 20:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>1294</v>
+      </c>
+      <c r="G5" t="n">
+        <v>98</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79350&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2251,33 +2160,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·代号鸢Only——绣衣楼过大年</t>
+          <t>杭州·冒险家次元动漫展</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>黄姑山路51-4号 0101park</t>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.13 11:00-01.13 20:00</t>
+          <t>2024.01.13 09:30-01.14 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1219</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+        <v>2115</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79350&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79640&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2199,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展</t>
+          <t>杭州·冒险家次元动漫展 声动杭州CV专场-杜冥鸦、穆雪婷、秦紫翼、牧野冥姬</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2302,15 +2209,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.13 09:30-01.14 17:00</t>
+          <t>2024.01.13 10:00-01.13 16:45</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1974</v>
+        <v>433</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>已售罄</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -2318,7 +2225,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79640&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79646&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2333,33 +2240,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展 声动杭州CV专场-杜冥鸦、穆雪婷、秦紫翼、牧野冥姬</t>
+          <t>杭州·凡多姆海威降雪宴会·黑执事ONLY</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+          <t>凤凰御元艺术基地1138园区9号楼绿房子 迷邓花园</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 16:45</t>
+          <t>2024.01.13 12:30-01.13 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>429</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>184</v>
+      </c>
+      <c r="G8" t="n">
+        <v>218</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79646&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80021&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2374,33 +2279,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·凡多姆海威降雪宴会·黑执事ONLY</t>
+          <t>杭州·温馨国乙only</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>凤凰御元艺术基地1138园区9号楼绿房子 迷邓花园</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.13 12:30-01.13 21:00</t>
+          <t>2024.01.13 10:00-01.13 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>159</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
+        <v>435</v>
+      </c>
+      <c r="G9" t="n">
+        <v>70</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80021&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79169&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2415,33 +2318,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·温馨国乙only</t>
+          <t>杭州·漫次元--茶话会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>萧杭路615号2排左转到头16幢 Ciao Shed梧桐小院</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 17:00</t>
+          <t>2024.01.13 17:00-01.13 22:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>401</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79169&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80448&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2451,38 +2352,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·漫次元--茶话会</t>
+          <t>杭州·1.20新春国乙only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>萧杭路615号2排左转到头16幢 Ciao Shed梧桐小院</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.13 22:00</t>
+          <t>2024.01.20 10:00-01.20 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>538</v>
+      </c>
+      <c r="G11" t="n">
+        <v>78</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80448&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2497,33 +2396,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.20 10:00-01.21 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>487</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
+        <v>149</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2538,33 +2435,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·造梦探险家二次元同好会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>振华路19号 米盒城</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.21 17:00</t>
+          <t>2024.01.20 10:00-01.20 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>116</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2574,38 +2469,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·春季任天堂同好会ONLY1.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
+          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.21 10:00-01.21 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>73</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+        <v>181</v>
+      </c>
+      <c r="G14" t="n">
+        <v>69</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2615,38 +2508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>巧客街88号 钱塘小雅田园中心</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.01.27 11:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>139</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+        <v>821</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2661,33 +2552,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>杭州·VOCALOID ONLY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>九环路7号 杭州鑫牛大厦</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>774</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="G16" t="n">
+        <v>78</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2697,30 +2586,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>849</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -2728,7 +2617,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2738,38 +2627,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>850</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="G18" t="n">
+        <v>89</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2779,38 +2666,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024.01.31</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2820,38 +2707,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>4482</v>
+      </c>
+      <c r="G20" t="n">
+        <v>70</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2866,33 +2751,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3638</v>
+        <v>2729</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2907,25 +2792,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2742</v>
+        <v>858</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>不可售</t>
+          <t>已售罄</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -2933,7 +2818,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2943,12 +2828,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2958,23 +2843,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>824</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>638</v>
+      </c>
+      <c r="G23" t="n">
+        <v>68</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2984,30 +2867,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>已售罄</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -3015,7 +2898,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3030,33 +2913,31 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>332</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>734</v>
+      </c>
+      <c r="G25" t="n">
+        <v>60</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3066,38 +2947,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州·6th YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>703</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1493</v>
+      </c>
+      <c r="G26" t="n">
+        <v>65</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3107,38 +2986,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="G27" t="n">
+        <v>65</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3153,33 +3030,31 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
+          <t>2024.02.24 11:00-02.24 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>685</v>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3189,38 +3064,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024.03.02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州·杭州灵能百分百only</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>水博大道118号 宝盛水博园大酒店</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
+          <t>2024.03.02 09:30-03.02 17:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>672</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>298</v>
+      </c>
+      <c r="G29" t="n">
+        <v>89</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3230,38 +3103,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024.03.09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>杭州·杭州灵能百分百only</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>水博大道118号 宝盛水博园大酒店</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.02 09:30-03.02 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>271</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
+        <v>93</v>
+      </c>
+      <c r="G30" t="n">
+        <v>65</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3271,30 +3142,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024.04.04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州·第九届萌次元动漫嘉年华</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.04.04 10:00-04.05 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -3302,7 +3173,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3310,42 +3181,14 @@
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2024.04.04</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>杭州·第九届萌次元动漫嘉年华</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>217</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3364,7 +3207,12 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -3373,24 +3221,6 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -487,36 +492,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·代号鸢Only——绣衣楼过大年</t>
+          <t>杭州·1.20新春国乙only</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>黄姑山路51-4号 0101park</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024.01.13 11:00-01.13 20:00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1294</v>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024.01.20 10:00-01.20 17:00</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>98</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79350&amp;msource=Msearch_colligation</t>
+        <v>618</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -526,36 +532,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展</t>
+          <t>杭州·造梦探险家二次元同好会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024.01.13 09:30-01.14 17:00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2115</v>
+          <t>振华路19号 米盒城</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024.01.20 10:00-01.20 17:00</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79640&amp;msource=Msearch_colligation</t>
+        <v>145</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -565,38 +572,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展 声动杭州CV专场-杜冥鸦、穆雪婷、秦紫翼、牧野冥姬</t>
+          <t>杭州·春季任天堂同好会ONLY1.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024.01.13 10:00-01.13 16:45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>433</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79646&amp;msource=Msearch_colligation</t>
+          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024.01.21 10:00-01.21 17:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>204</v>
+      </c>
+      <c r="H4" t="n">
+        <v>99</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -606,36 +612,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·凡多姆海威降雪宴会·黑执事ONLY</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>凤凰御元艺术基地1138园区9号楼绿房子 迷邓花园</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024.01.13 12:30-01.13 21:00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>184</v>
+          <t>康候圣街99号 顺丰创新中心</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024.01.27 11:00-01.28 17:00</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>218</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80021&amp;msource=Msearch_colligation</t>
+        <v>876</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -645,36 +652,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·温馨国乙only</t>
+          <t>杭州·VOCALOID ONLY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024.01.13 10:00-01.13 17:00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>435</v>
+          <t>九环路7号 杭州鑫牛大厦</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79169&amp;msource=Msearch_colligation</t>
+        <v>89</v>
+      </c>
+      <c r="H6" t="n">
+        <v>78</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -684,36 +692,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·漫次元--茶话会</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>萧杭路615号2排左转到头16幢 Ciao Shed梧桐小院</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024.01.13 17:00-01.13 22:00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>57</v>
+          <t>九龙大道227号 七里香溪别墅园</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024.01.28 10:00-01.28 17:00</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>128</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80448&amp;msource=Msearch_colligation</t>
+        <v>850</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -723,36 +734,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.02.01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州·心动次元动漫游戏展</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>538</v>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024.02.01 10:30-02.01 16:30</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+        <v>21</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -762,36 +774,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>149</v>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024.02.03 09:00-02.04 17:00</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
-      </c>
-      <c r="H9" t="b">
+        <v>5497</v>
+      </c>
+      <c r="H9" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -801,36 +814,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>91</v>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.04 17:00</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>28</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+        <v>2723</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -840,36 +856,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>181</v>
+          <t>石祥路242号 首开公园</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.03 18:00</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>69</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+        <v>878</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -879,36 +898,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>821</v>
+          <t>金桥北路1号 富阳东方茂</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024.02.04 10:30-02.04 16:30</t>
+        </is>
       </c>
       <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
         <v>50</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -918,36 +938,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>64</v>
+          <t>石祥路242号 首开公园</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024.02.04 10:00-02.04 18:00</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>78</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+        <v>684</v>
+      </c>
+      <c r="H13" t="n">
+        <v>68</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -957,38 +978,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.02.05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>849</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024.02.05 10:00-02.06 17:00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>411</v>
+      </c>
+      <c r="H14" t="n">
+        <v>40</v>
+      </c>
+      <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -998,36 +1018,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4482</v>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024.02.07 10:00-02.07 17:00</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>70</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1037,38 +1058,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2729</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>同协路288号 1928创意园</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024.02.16 10:00-02.16 18:00</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>350</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1078,38 +1100,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>858</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>康候圣街99号 顺丰创新中心</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024.02.16 11:00-02.16 17:00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>787</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1119,36 +1140,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·6th YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>638</v>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024.02.17 10:00-02.18 17:00</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>68</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+        <v>1903</v>
+      </c>
+      <c r="H18" t="n">
+        <v>65</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1158,38 +1180,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>338</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024.02.24 10:00-02.25 17:00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>81</v>
+      </c>
+      <c r="H19" t="n">
+        <v>65</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1220,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1212,23 +1233,24 @@
           <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>734</v>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024.02.24 11:00-02.24 17:00</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>60</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+        <v>710</v>
+      </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1238,36 +1260,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024.03.02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·杭州灵能百分百only</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1493</v>
+          <t>水博大道118号 宝盛水博园大酒店</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024.03.02 09:30-03.02 17:00</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>65</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
+        <v>343</v>
+      </c>
+      <c r="H21" t="n">
+        <v>89</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1300,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024.03.09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1290,23 +1313,24 @@
           <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>55</v>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024.03.09 10:00-03.10 17:00</t>
+        </is>
       </c>
       <c r="G22" t="n">
+        <v>136</v>
+      </c>
+      <c r="H22" t="n">
         <v>65</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1316,36 +1340,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024.04.04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州·第九届萌次元动漫嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>685</v>
+          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
+        <v>218</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1353,79 +1380,29 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2024.03.02</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>杭州·杭州灵能百分百only</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>水博大道118号 宝盛水博园大酒店</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2024.03.02 09:30-03.02 17:00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>298</v>
-      </c>
-      <c r="G24" t="n">
-        <v>89</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2024.03.09</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>杭州·异次结界动漫嘉年华</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>93</v>
-      </c>
-      <c r="G25" t="n">
-        <v>65</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1433,84 +1410,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.04.04</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>杭州·第九届萌次元动漫嘉年华</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>216</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1523,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,25 +1463,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -1582,38 +1498,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2024.01.29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·SACG二次元live夜场（取消）</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024.01.12 19:00-01.12 22:00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>41</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
+          <t>同协路288号 1928创意园</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024.01.29 18:00-01.29 21:00</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1623,36 +1538,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024.01.13 14:00-01.13 15:30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>武林广场29号 杭州剧院</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024.01.31 19:30-01.31 21:00</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
+        <v>26</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1660,87 +1578,40 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024.01.29</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>同协路288号 1928创意园</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>89</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024.01.31</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>武林广场29号 杭州剧院</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -1748,37 +1619,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1791,7 +1632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1820,25 +1661,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -1863,21 +1709,22 @@
           <t>新业路228号 杭州来福士中心</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023.12.30 10:00-2024.02.16 22:00</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>126</v>
-      </c>
       <c r="G2" t="n">
+        <v>158</v>
+      </c>
+      <c r="H2" t="n">
         <v>108</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
         </is>
@@ -1895,6 +1742,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1908,6 +1756,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1926,6 +1775,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1938,7 +1788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,25 +1817,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -2010,21 +1865,22 @@
           <t>新业路228号 杭州来福士中心</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2023.12.30 10:00-2024.02.16 22:00</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>126</v>
-      </c>
       <c r="G2" t="n">
+        <v>158</v>
+      </c>
+      <c r="H2" t="n">
         <v>108</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
         </is>
@@ -2036,38 +1892,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.12</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·SACG二次元live夜场（取消）</t>
+          <t>杭州·1.20新春国乙only</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>新北街85号三层G2-302 杭州大麦66 LIVEHOUSE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024.01.12 19:00-01.12 22:00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>41</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80181&amp;msource=Msearch_colligation</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024.01.20 10:00-01.20 17:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>618</v>
+      </c>
+      <c r="H3" t="n">
+        <v>78</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2077,36 +1932,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·《LALALAND爱乐之城》浪漫主题音乐会</t>
+          <t>杭州·造梦探险家二次元同好会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024.01.13 14:00-01.13 15:30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>振华路19号 米盒城</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024.01.20 10:00-01.20 17:00</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>90</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80308&amp;msource=Msearch_colligation</t>
+        <v>145</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2116,36 +1972,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·代号鸢Only——绣衣楼过大年</t>
+          <t>杭州·春季任天堂同好会ONLY1.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>黄姑山路51-4号 0101park</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024.01.13 11:00-01.13 20:00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1294</v>
+          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024.01.21 10:00-01.21 17:00</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>98</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79350&amp;msource=Msearch_colligation</t>
+        <v>204</v>
+      </c>
+      <c r="H5" t="n">
+        <v>99</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2155,36 +2012,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024.01.13 09:30-01.14 17:00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2115</v>
+          <t>康候圣街99号 顺丰创新中心</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024.01.27 11:00-01.28 17:00</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="b">
+        <v>876</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79640&amp;msource=Msearch_colligation</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2194,38 +2052,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·冒险家次元动漫展 声动杭州CV专场-杜冥鸦、穆雪婷、秦紫翼、牧野冥姬</t>
+          <t>杭州·VOCALOID ONLY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024.01.13 10:00-01.13 16:45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>433</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
+          <t>九环路7号 杭州鑫牛大厦</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>89</v>
+      </c>
+      <c r="H7" t="n">
+        <v>78</v>
+      </c>
+      <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79646&amp;msource=Msearch_colligation</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2235,36 +2092,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·凡多姆海威降雪宴会·黑执事ONLY</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>凤凰御元艺术基地1138园区9号楼绿房子 迷邓花园</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024.01.13 12:30-01.13 21:00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>184</v>
+          <t>九龙大道227号 七里香溪别墅园</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024.01.28 10:00-01.28 17:00</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>218</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80021&amp;msource=Msearch_colligation</t>
+        <v>850</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2274,36 +2134,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·温馨国乙only</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.01.13 10:00-01.13 17:00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>435</v>
+          <t>同协路288号 1928创意园</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024.01.29 18:00-01.29 21:00</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79169&amp;msource=Msearch_colligation</t>
+        <v>30</v>
+      </c>
+      <c r="H9" t="n">
+        <v>89</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2313,36 +2174,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·漫次元--茶话会</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>萧杭路615号2排左转到头16幢 Ciao Shed梧桐小院</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024.01.13 17:00-01.13 22:00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>57</v>
+          <t>武林广场29号 杭州剧院</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024.01.31 19:30-01.31 21:00</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>128</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80448&amp;msource=Msearch_colligation</t>
+        <v>26</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2352,36 +2216,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.02.01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州·心动次元动漫游戏展</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>538</v>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024.02.01 10:30-02.01 16:30</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+        <v>21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2391,36 +2256,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>149</v>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024.02.03 09:00-02.04 17:00</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
-      </c>
-      <c r="H12" t="b">
+        <v>5497</v>
+      </c>
+      <c r="H12" t="n">
+        <v>70</v>
+      </c>
+      <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2430,36 +2296,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>91</v>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.04 17:00</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+        <v>2723</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2469,36 +2338,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>181</v>
+          <t>石祥路242号 首开公园</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.03 18:00</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>69</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+        <v>878</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2508,36 +2380,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>821</v>
+          <t>金桥北路1号 富阳东方茂</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024.02.04 10:30-02.04 16:30</t>
+        </is>
       </c>
       <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
         <v>50</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2547,36 +2420,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>64</v>
+          <t>石祥路242号 首开公园</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024.02.04 10:00-02.04 18:00</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>78</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+        <v>684</v>
+      </c>
+      <c r="H16" t="n">
+        <v>68</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2586,38 +2460,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.02.05</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>849</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024.02.05 10:00-02.06 17:00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>411</v>
+      </c>
+      <c r="H17" t="n">
+        <v>40</v>
+      </c>
+      <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2627,36 +2500,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024.02.07</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>29</v>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024.02.07 10:00-02.07 17:00</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>89</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2666,38 +2540,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>26</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+          <t>同协路288号 1928创意园</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024.02.16 10:00-02.16 18:00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>350</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2707,36 +2582,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4482</v>
+          <t>康候圣街99号 顺丰创新中心</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024.02.16 11:00-02.16 17:00</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+        <v>787</v>
+      </c>
+      <c r="H20" t="n">
+        <v>60</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2746,38 +2622,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·6th YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2729</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024.02.17 10:00-02.18 17:00</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1903</v>
+      </c>
+      <c r="H21" t="n">
+        <v>65</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2787,38 +2662,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>858</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024.02.24 10:00-02.25 17:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>81</v>
+      </c>
+      <c r="H22" t="n">
+        <v>65</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2828,36 +2702,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>638</v>
+          <t>康候圣街99号 顺丰创新中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024.02.24 11:00-02.24 17:00</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>68</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+        <v>710</v>
+      </c>
+      <c r="H23" t="n">
+        <v>50</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2867,38 +2742,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.03.02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·杭州灵能百分百only</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>338</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>水博大道118号 宝盛水博园大酒店</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024.03.02 09:30-03.02 17:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>343</v>
+      </c>
+      <c r="H24" t="n">
+        <v>89</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2908,36 +2782,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.03.09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>734</v>
+          <t>德胜东路2539号 梦马汽车小镇</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024.03.09 10:00-03.10 17:00</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+        <v>136</v>
+      </c>
+      <c r="H25" t="n">
+        <v>65</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2947,36 +2822,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024.04.04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·第九届萌次元动漫嘉年华</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1493</v>
+          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>65</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
+        <v>218</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2984,79 +2862,29 @@
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2024.02.24</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>55</v>
-      </c>
-      <c r="G27" t="n">
-        <v>65</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2024.02.24</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>康候圣街99号 顺丰创新中心</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>685</v>
-      </c>
-      <c r="G28" t="n">
-        <v>50</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3064,162 +2892,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>杭州·杭州灵能百分百only</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>水博大道118号 宝盛水博园大酒店</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2024.03.02 09:30-03.02 17:00</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>298</v>
-      </c>
-      <c r="G29" t="n">
-        <v>89</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2024.03.09</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>杭州·异次结界动漫嘉年华</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>93</v>
-      </c>
-      <c r="G30" t="n">
-        <v>65</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2024.04.04</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>杭州·第九届萌次元动漫嘉年华</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>216</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,37 +492,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.27 11:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>618</v>
+        <v>964</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -532,37 +532,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·VOCALOID ONLY（取消）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
+          <t>九环路7号 杭州鑫牛大厦</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>145</v>
-      </c>
-      <c r="H3" t="n">
-        <v>28</v>
+        <v>119</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -572,37 +574,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>204</v>
-      </c>
-      <c r="H4" t="n">
-        <v>99</v>
+        <v>847</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -612,37 +616,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>杭州·心动次元动漫游戏展</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
+          <t>2024.02.01 10:30-02.01 16:30</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>876</v>
+        <v>46</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -652,37 +656,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>6662</v>
       </c>
       <c r="H6" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -692,27 +696,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>850</v>
+        <v>2722</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -720,11 +724,11 @@
         </is>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -734,37 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·心动次元动漫游戏展</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.02.01 10:30-02.01 16:30</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
-      </c>
-      <c r="H8" t="n">
-        <v>50</v>
+        <v>903</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -774,37 +780,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>金桥北路1号 富阳东方茂</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.04 10:30-02.04 16:30</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5497</v>
+        <v>258</v>
       </c>
       <c r="H9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -814,39 +820,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2723</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>740</v>
+      </c>
+      <c r="H10" t="n">
+        <v>68</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -856,39 +860,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.05 10:00-02.05 20:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>878</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>502</v>
+      </c>
+      <c r="H11" t="n">
+        <v>40</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -898,27 +900,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富阳·原X铁X崩ONLY</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>金桥北路1号 富阳东方茂</t>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024.02.04 10:30-02.04 16:30</t>
+          <t>2024.02.07 10:00-02.07 17:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -928,7 +930,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -938,37 +940,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>杭州·小情侣only</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.14 10:00-02.14 18:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>684</v>
+        <v>34</v>
       </c>
       <c r="H13" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81088&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -978,37 +980,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.02.05</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.02.05 10:00-02.06 17:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>411</v>
-      </c>
-      <c r="H14" t="n">
-        <v>40</v>
+        <v>363</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1018,37 +1022,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.02.07</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建德·星之漫游戏嘉年华</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>桥东路一号1号 皇爵君廷大酒店</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.02.07 10:00-02.07 17:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1058,39 +1062,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·第六届YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>350</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>2388</v>
+      </c>
+      <c r="H16" t="n">
+        <v>65</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1100,37 +1102,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>787</v>
+        <v>74</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81128&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1142,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024.02.17 10:00-02.18 17:00</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1903</v>
+        <v>163</v>
       </c>
       <c r="H18" t="n">
         <v>65</v>
@@ -1170,7 +1172,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1182,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
+          <t>2024.02.24 11:00-02.24 17:00</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>81</v>
+        <v>731</v>
       </c>
       <c r="H19" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1220,37 +1222,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州· young comic漾动漫嘉年华</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
+          <t>2024.03.02 09:00-03.02 17:00</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>710</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81117&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1262,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1280,7 +1282,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="H21" t="n">
         <v>89</v>
@@ -1300,17 +1302,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1320,17 +1322,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81211&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1340,39 +1342,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.04.04</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州·第九届萌次元动漫嘉年华</t>
+          <t>杭州·异次结界动漫嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
+          <t>2024.03.09 10:00-03.10 17:00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>218</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>173</v>
+      </c>
+      <c r="H23" t="n">
+        <v>65</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1380,29 +1380,81 @@
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>杭州·ComicMe动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>长江南路336号 白马湖国际会展中心</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024.03.16 09:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>60</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81214&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>杭州·OZ·富坚义博only</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>88</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81151&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1410,18 +1462,328 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>杭州·SST动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024.03.16 09:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>13</v>
+      </c>
+      <c r="H26" t="n">
+        <v>68</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81196&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>杭州·排球少年*蓝锁ONLY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>97</v>
+      </c>
+      <c r="H27" t="n">
+        <v>60</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81075&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>杭州·第十届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>78</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81136&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>杭州·筑梦城堡巡回展降临之章</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大岭山路156号 爱丽芬城堡</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>28</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81217&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>264</v>
+      </c>
+      <c r="H30" t="n">
+        <v>75</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80905&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>70</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81078&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>杭州·第九届萌次元动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>226</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1434,7 +1796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,37 +1860,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·《天空之城》久石让·宫崎骏动漫经典作品音乐会|浙江电影爱乐乐团</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.01.27 19:30-01.27 21:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80903&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1538,39 +1900,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>89</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1578,29 +1938,83 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>武林广场29号 杭州剧院</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024.01.31 19:30-01.31 21:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-02-17</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>同协路288号 1928创意园</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024.02.17 10:00-02.17 21:00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80948&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1608,18 +2022,126 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>杭州·《卡农》永恒经典名曲音乐会</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024.02.24 19:30-02.24 21:00</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>90</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80904&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>杭州· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>金沙大道681号 金沙湖大剧院</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024.04.27 19:30-04.27 21:30</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>180</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80936&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1632,7 +2154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,41 +2216,15 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023.12.30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>杭州·伊藤润二官方快闪店 限定特典礼包</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>新业路228号 杭州来福士中心</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023.12.30 10:00-2024.02.16 22:00</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>158</v>
-      </c>
-      <c r="H2" t="n">
-        <v>108</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1748,7 +2244,12 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -1757,25 +2258,6 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1788,7 +2270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1852,7 +2334,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023.12.30</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1872,7 +2354,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="H2" t="n">
         <v>108</v>
@@ -1892,37 +2374,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州·1.20新春国乙only</t>
+          <t>杭州.第32届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.27 11:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>618</v>
+        <v>964</v>
       </c>
       <c r="H3" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79605&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1932,37 +2414,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>杭州·造梦探险家二次元同好会</t>
+          <t>杭州·VOCALOID ONLY（取消）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>振华路19号 米盒城</t>
+          <t>九环路7号 杭州鑫牛大厦</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>145</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28</v>
+        <v>119</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80379&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1972,37 +2456,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>杭州·春季任天堂同好会ONLY1.0</t>
+          <t>杭州·《天空之城》久石让·宫崎骏动漫经典作品音乐会|浙江电影爱乐乐团</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>丰庆路492号建冠龙禾商务中心A幢 杭州华礼宴国际礼宴中心(龙禾商务中心店)</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.01.27 19:30-01.27 21:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80368&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80903&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2012,37 +2496,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杭州.第32届 中二病 原神x星穹only</t>
+          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>九龙大道227号 七里香溪别墅园</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024.01.27 11:00-01.28 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>876</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
+        <v>847</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2052,37 +2538,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>杭州·VOCALOID ONLY</t>
+          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>九环路7号 杭州鑫牛大厦</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.29 18:00-01.29 21:00</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>31</v>
+      </c>
+      <c r="H7" t="n">
         <v>89</v>
-      </c>
-      <c r="H7" t="n">
-        <v>78</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2092,27 +2578,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>杭州·文豪野犬舞会ONLY:横滨晚宴（取消）</t>
+          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>九龙大道227号 七里香溪别墅园</t>
+          <t>武林广场29号 杭州剧院</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.01.31 19:30-01.31 21:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>850</v>
+        <v>28</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2120,11 +2606,11 @@
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2134,37 +2620,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>杭州·向着遥远的未来出发 miriちゃん生日SP</t>
+          <t>杭州·心动次元动漫游戏展</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024.01.29 18:00-01.29 21:00</t>
+          <t>2024.02.01 10:30-02.01 16:30</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2174,39 +2660,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.31</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>杭州·《爱永恒》理查德·克莱德曼2024新年钢琴音乐会</t>
+          <t>杭州·AP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>武林广场29号 杭州剧院</t>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024.01.31 19:30-01.31 21:00</t>
+          <t>2024.02.03 09:00-02.04 17:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>6662</v>
+      </c>
+      <c r="H10" t="n">
+        <v>70</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2216,37 +2700,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>杭州·心动次元动漫游戏展</t>
+          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>望江东路333号 杭州瑞莱克斯大酒店</t>
+          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024.02.01 10:30-02.01 16:30</t>
+          <t>2024.02.03 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
-      </c>
-      <c r="H11" t="n">
-        <v>50</v>
+        <v>2722</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2256,37 +2742,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>杭州·AP动漫游戏嘉年华</t>
+          <t>杭州·浙江蔚蓝档案only</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+          <t>石祥路242号 首开公园</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024.02.03 09:00-02.04 17:00</t>
+          <t>2024.02.03 10:00-02.03 18:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5497</v>
-      </c>
-      <c r="H12" t="n">
-        <v>70</v>
+        <v>903</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2296,39 +2784,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>杭州·樱之弦世界动漫游戏博览会（取消）</t>
+          <t>富阳·原X铁X崩ONLY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>钱江世纪城奔竞大道353号 杭州国际博览中心</t>
+          <t>金桥北路1号 富阳东方茂</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.04 17:00</t>
+          <t>2024.02.04 10:30-02.04 16:30</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2723</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>258</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2338,12 +2824,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州·浙江蔚蓝档案only</t>
+          <t>杭州·偶像梦幻祭ONLY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2354,23 +2840,21 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 18:00</t>
+          <t>2024.02.04 10:00-02.04 18:00</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>878</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>740</v>
+      </c>
+      <c r="H14" t="n">
+        <v>68</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2380,37 +2864,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富阳·原X铁X崩ONLY</t>
+          <t>杭州·动漫迷城嘉年华</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>金桥北路1号 富阳东方茂</t>
+          <t>体育场路武林广场11号 杭州大厦中央商城</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.02.04 10:30-02.04 16:30</t>
+          <t>2024.02.05 10:00-02.05 20:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>502</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2420,37 +2904,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州·偶像梦幻祭ONLY</t>
+          <t>建德·星之漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>石祥路242号 首开公园</t>
+          <t>桥东路一号1号 皇爵君廷大酒店</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.02.04 10:00-02.04 18:00</t>
+          <t>2024.02.07 10:00-02.07 17:00</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>684</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2460,37 +2944,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.05</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>杭州·动漫迷城嘉年华</t>
+          <t>杭州·小情侣only</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>体育场路武林广场11号 杭州大厦中央商城</t>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024.02.05 10:00-02.06 17:00</t>
+          <t>2024.02.14 10:00-02.14 18:00</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>411</v>
+        <v>34</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81088&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2500,37 +2984,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.07</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>建德·星之漫游戏嘉年华</t>
+          <t>杭州·PJSK only展</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>桥东路一号1号 皇爵君廷大酒店</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024.02.07 10:00-02.07 17:00</t>
+          <t>2024.02.16 10:00-02.16 18:00</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>50</v>
+        <v>363</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2540,39 +3026,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杭州·PJSK only展</t>
+          <t>杭州·第34届中二病动漫游戏展</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>同协路288号 1928创意园</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 18:00</t>
+          <t>2024.02.16 11:00-02.16 17:00</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>350</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>814</v>
+      </c>
+      <c r="H19" t="n">
+        <v>60</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2582,37 +3066,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·第34届中二病动漫游戏展</t>
+          <t>杭州·【星玫Rostar×Aniidol】2nd Oneman Live - 阿诗生日SP -</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>同协路288号 1928创意园</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024.02.16 11:00-02.16 17:00</t>
+          <t>2024.02.17 10:00-02.17 21:00</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>787</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80948&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2622,12 +3106,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.17</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>杭州·6th YH樱花动漫游戏文化节</t>
+          <t>杭州·第六届YH樱花动漫游戏文化节</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2642,7 +3126,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1903</v>
+        <v>2388</v>
       </c>
       <c r="H21" t="n">
         <v>65</v>
@@ -2662,37 +3146,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>杭州·次元幻想动漫游戏嘉年华</t>
+          <t>杭州·第六届YH樱花漫展-SVIP嘉宾前排票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 17:00</t>
+          <t>2024.02.17 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H22" t="n">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81128&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2702,37 +3186,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>杭州第35届 中二病 原神x星穹only</t>
+          <t>杭州·《卡农》永恒经典名曲音乐会</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>康候圣街99号 顺丰创新中心</t>
+          <t>武林路77号 浙江省文化馆小剧场（原群艺馆小剧场）</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024.02.24 11:00-02.24 17:00</t>
+          <t>2024.02.24 19:30-02.24 21:00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>710</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80904&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2742,37 +3226,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>杭州·杭州灵能百分百only</t>
+          <t>杭州·次元幻想动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>水博大道118号 宝盛水博园大酒店</t>
+          <t>德胜东路2539号 梦马汽车小镇</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024.03.02 09:30-03.02 17:00</t>
+          <t>2024.02.24 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="H24" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2782,37 +3266,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.03.09</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>杭州·异次结界动漫嘉年华</t>
+          <t>杭州第35届 中二病 原神x星穹only</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>德胜东路2539号 梦马汽车小镇</t>
+          <t>康候圣街99号 顺丰创新中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024.03.09 10:00-03.10 17:00</t>
+          <t>2024.02.24 11:00-02.24 17:00</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>136</v>
+        <v>731</v>
       </c>
       <c r="H25" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2822,39 +3306,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.04.04</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>杭州·第九届萌次元动漫嘉年华</t>
+          <t>杭州· young comic漾动漫嘉年华</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024.04.04 10:00-04.05 17:00</t>
+          <t>2024.03.02 09:00-03.02 17:00</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>218</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="H26" t="n">
+        <v>70</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81117&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2862,29 +3344,81 @@
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>杭州·杭州灵能百分百only</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>水博大道118号 宝盛水博园大酒店</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024.03.02 09:30-03.02 17:00</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>395</v>
+      </c>
+      <c r="H27" t="n">
+        <v>89</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>杭州·COMIC TIME动漫游戏嘉年华</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>飞虹路3号 杭州奥体中心综合训练馆</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024.03.09 10:00-03.10 17:00</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>70</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81211&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2892,18 +3426,488 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>杭州·异次结界动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>德胜东路2539号 梦马汽车小镇</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024.03.09 10:00-03.10 17:00</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>173</v>
+      </c>
+      <c r="H29" t="n">
+        <v>65</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>杭州·ComicMe动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>长江南路336号 白马湖国际会展中心</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024.03.16 09:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>60</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81214&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>杭州·OZ·富坚义博only</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>北干街道萧杭路689号浙农东巢艺术公园 Fashion Bund时尚外滩艺术中心</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>74</v>
+      </c>
+      <c r="H31" t="n">
+        <v>88</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81151&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>杭州·SST动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沈半路171号 Tcar汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024.03.16 09:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>68</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81196&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>杭州·排球少年*蓝锁ONLY</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>亚太路湘湖3期东南侧约290米 原创壹号羽毛球馆</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>97</v>
+      </c>
+      <c r="H33" t="n">
+        <v>60</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81075&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>杭州·第十届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>万融城3幢1楼 头号玩家数字运动俱乐部</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.17 17:00</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>78</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81136&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>杭州·筑梦城堡巡回展降临之章</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大岭山路156号 爱丽芬城堡</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>28</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81217&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>杭州·AD02动漫展</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>浙江省杭州市萧山区奔竞大道353号 国际博览中心</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.24 17:00</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>264</v>
+      </c>
+      <c r="H36" t="n">
+        <v>75</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80905&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>杭州·创造力动漫游戏嘉年华1.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沈半路171号 T-Car杭州汽车文化主题公园</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>70</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81078&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>杭州·第九届萌次元动漫嘉年华</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>长乐路29号五组2幢 杭州运河文化发布中心</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024.04.04 10:00-04.05 17:00</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>226</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>杭州· 夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>金沙大道681号 金沙湖大剧院</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024.04.27 19:30-04.27 21:30</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>180</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80936&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/杭州-漫展信息.xlsx
+++ b/漫展信息/杭州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -512,15 +507,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H2" t="n">
         <v>50</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
@@ -552,17 +544,14 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>不可售</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
@@ -601,10 +590,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
@@ -641,10 +627,7 @@
       <c r="H5" t="n">
         <v>50</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
         </is>
@@ -676,15 +659,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6662</v>
+        <v>6676</v>
       </c>
       <c r="H6" t="n">
         <v>70</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
@@ -723,10 +703,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
@@ -765,10 +742,7 @@
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
@@ -800,15 +774,12 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
         </is>
@@ -840,15 +811,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H10" t="n">
         <v>68</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
@@ -880,15 +848,12 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H11" t="n">
         <v>40</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
@@ -925,10 +890,7 @@
       <c r="H12" t="n">
         <v>50</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
         </is>
@@ -965,10 +927,7 @@
       <c r="H13" t="n">
         <v>88</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81088&amp;msource=Msearch_colligation</t>
         </is>
@@ -1000,17 +959,14 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
@@ -1047,10 +1003,7 @@
       <c r="H15" t="n">
         <v>60</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
@@ -1082,15 +1035,12 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="H16" t="n">
         <v>65</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
         </is>
@@ -1122,15 +1072,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" t="n">
         <v>138</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81128&amp;msource=Msearch_colligation</t>
         </is>
@@ -1162,15 +1109,12 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" t="n">
         <v>65</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
@@ -1207,10 +1151,7 @@
       <c r="H19" t="n">
         <v>50</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
@@ -1247,10 +1188,7 @@
       <c r="H20" t="n">
         <v>70</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81117&amp;msource=Msearch_colligation</t>
         </is>
@@ -1282,15 +1220,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H21" t="n">
         <v>89</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
         </is>
@@ -1322,15 +1257,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
         <v>70</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81211&amp;msource=Msearch_colligation</t>
         </is>
@@ -1367,10 +1299,7 @@
       <c r="H23" t="n">
         <v>65</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
         </is>
@@ -1407,10 +1336,7 @@
       <c r="H24" t="n">
         <v>60</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81214&amp;msource=Msearch_colligation</t>
         </is>
@@ -1442,15 +1368,12 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25" t="n">
         <v>88</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81151&amp;msource=Msearch_colligation</t>
         </is>
@@ -1487,10 +1410,7 @@
       <c r="H26" t="n">
         <v>68</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81196&amp;msource=Msearch_colligation</t>
         </is>
@@ -1522,15 +1442,12 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
         <v>60</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81075&amp;msource=Msearch_colligation</t>
         </is>
@@ -1567,10 +1484,7 @@
       <c r="H28" t="n">
         <v>78</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81136&amp;msource=Msearch_colligation</t>
         </is>
@@ -1602,15 +1516,12 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>28</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81217&amp;msource=Msearch_colligation</t>
         </is>
@@ -1642,15 +1553,12 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H30" t="n">
         <v>75</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80905&amp;msource=Msearch_colligation</t>
         </is>
@@ -1687,10 +1595,7 @@
       <c r="H31" t="n">
         <v>70</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81078&amp;msource=Msearch_colligation</t>
         </is>
@@ -1729,10 +1634,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
@@ -1750,7 +1652,6 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,7 +1665,6 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1783,7 +1683,6 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1796,7 +1695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1845,11 +1744,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1885,10 +1779,7 @@
       <c r="H2" t="n">
         <v>90</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80903&amp;msource=Msearch_colligation</t>
         </is>
@@ -1925,10 +1816,7 @@
       <c r="H3" t="n">
         <v>89</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
@@ -1967,10 +1855,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
@@ -2007,10 +1892,7 @@
       <c r="H5" t="n">
         <v>58</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80948&amp;msource=Msearch_colligation</t>
         </is>
@@ -2047,10 +1929,7 @@
       <c r="H6" t="n">
         <v>90</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80904&amp;msource=Msearch_colligation</t>
         </is>
@@ -2087,10 +1966,7 @@
       <c r="H7" t="n">
         <v>180</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80936&amp;msource=Msearch_colligation</t>
         </is>
@@ -2108,7 +1984,6 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2122,7 +1997,6 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2141,7 +2015,6 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2154,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2203,11 +2076,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2224,7 +2092,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2238,7 +2105,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2257,7 +2123,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2270,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2319,11 +2184,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2354,15 +2214,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" t="n">
         <v>108</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80137&amp;msource=Msearch_colligation</t>
         </is>
@@ -2394,15 +2251,12 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79906&amp;msource=Msearch_colligation</t>
         </is>
@@ -2434,17 +2288,14 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>不可售</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80374&amp;msource=Msearch_colligation</t>
         </is>
@@ -2481,10 +2332,7 @@
       <c r="H5" t="n">
         <v>90</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80903&amp;msource=Msearch_colligation</t>
         </is>
@@ -2523,10 +2371,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77627&amp;msource=Msearch_colligation</t>
         </is>
@@ -2563,10 +2408,7 @@
       <c r="H7" t="n">
         <v>89</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79894&amp;msource=Msearch_colligation</t>
         </is>
@@ -2605,10 +2447,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=76645&amp;msource=Msearch_colligation</t>
         </is>
@@ -2645,10 +2484,7 @@
       <c r="H9" t="n">
         <v>50</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80708&amp;msource=Msearch_colligation</t>
         </is>
@@ -2680,15 +2516,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6662</v>
+        <v>6676</v>
       </c>
       <c r="H10" t="n">
         <v>70</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79837&amp;msource=Msearch_colligation</t>
         </is>
@@ -2727,10 +2560,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78232&amp;msource=Msearch_colligation</t>
         </is>
@@ -2769,10 +2599,7 @@
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77937&amp;msource=Msearch_colligation</t>
         </is>
@@ -2804,15 +2631,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H13" t="n">
         <v>50</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80711&amp;msource=Msearch_colligation</t>
         </is>
@@ -2844,15 +2668,12 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H14" t="n">
         <v>68</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77815&amp;msource=Msearch_colligation</t>
         </is>
@@ -2884,15 +2705,12 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H15" t="n">
         <v>40</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80216&amp;msource=Msearch_colligation</t>
         </is>
@@ -2929,10 +2747,7 @@
       <c r="H16" t="n">
         <v>50</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80666&amp;msource=Msearch_colligation</t>
         </is>
@@ -2969,10 +2784,7 @@
       <c r="H17" t="n">
         <v>88</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81088&amp;msource=Msearch_colligation</t>
         </is>
@@ -3004,17 +2816,14 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80124&amp;msource=Msearch_colligation</t>
         </is>
@@ -3051,10 +2860,7 @@
       <c r="H19" t="n">
         <v>60</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79971&amp;msource=Msearch_colligation</t>
         </is>
@@ -3091,10 +2897,7 @@
       <c r="H20" t="n">
         <v>58</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80948&amp;msource=Msearch_colligation</t>
         </is>
@@ -3126,15 +2929,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="H21" t="n">
         <v>65</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80324&amp;msource=Msearch_colligation</t>
         </is>
@@ -3166,15 +2966,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
         <v>138</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81128&amp;msource=Msearch_colligation</t>
         </is>
@@ -3211,10 +3008,7 @@
       <c r="H23" t="n">
         <v>90</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80904&amp;msource=Msearch_colligation</t>
         </is>
@@ -3246,15 +3040,12 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" t="n">
         <v>65</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80425&amp;msource=Msearch_colligation</t>
         </is>
@@ -3291,10 +3082,7 @@
       <c r="H25" t="n">
         <v>50</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79890&amp;msource=Msearch_colligation</t>
         </is>
@@ -3331,10 +3119,7 @@
       <c r="H26" t="n">
         <v>70</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81117&amp;msource=Msearch_colligation</t>
         </is>
@@ -3366,15 +3151,12 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H27" t="n">
         <v>89</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80099&amp;msource=Msearch_colligation</t>
         </is>
@@ -3406,15 +3188,12 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H28" t="n">
         <v>70</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81211&amp;msource=Msearch_colligation</t>
         </is>
@@ -3451,10 +3230,7 @@
       <c r="H29" t="n">
         <v>65</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79935&amp;msource=Msearch_colligation</t>
         </is>
@@ -3491,10 +3267,7 @@
       <c r="H30" t="n">
         <v>60</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81214&amp;msource=Msearch_colligation</t>
         </is>
@@ -3526,15 +3299,12 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H31" t="n">
         <v>88</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81151&amp;msource=Msearch_colligation</t>
         </is>
@@ -3571,10 +3341,7 @@
       <c r="H32" t="n">
         <v>68</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81196&amp;msource=Msearch_colligation</t>
         </is>
@@ -3606,15 +3373,12 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
         <v>60</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81075&amp;msource=Msearch_colligation</t>
         </is>
@@ -3651,10 +3415,7 @@
       <c r="H34" t="n">
         <v>78</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81136&amp;msource=Msearch_colligation</t>
         </is>
@@ -3686,15 +3447,12 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>28</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81217&amp;msource=Msearch_colligation</t>
         </is>
@@ -3726,15 +3484,12 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H36" t="n">
         <v>75</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80905&amp;msource=Msearch_colligation</t>
         </is>
@@ -3771,10 +3526,7 @@
       <c r="H37" t="n">
         <v>70</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81078&amp;msource=Msearch_colligation</t>
         </is>
@@ -3813,10 +3565,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78866&amp;msource=Msearch_colligation</t>
         </is>
@@ -3853,10 +3602,7 @@
       <c r="H39" t="n">
         <v>180</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80936&amp;msource=Msearch_colligation</t>
         </is>
@@ -3874,7 +3620,6 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3888,7 +3633,6 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3907,7 +3651,6 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
